--- a/REGISTRO.xlsx
+++ b/REGISTRO.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Alex\Documents\GitHub\cumpleanosangela\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C1A878B3-B1DF-4A3B-91A8-3C1448B324D0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8A6CE7CC-90D2-4547-9FAE-C496E03DAC0D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="25340" yWindow="1630" windowWidth="14400" windowHeight="7810" xr2:uid="{0B18AD99-E1DA-4E30-B6C4-63FF5CBA7EE5}"/>
+    <workbookView xWindow="21360" yWindow="1370" windowWidth="14400" windowHeight="7810" xr2:uid="{0B18AD99-E1DA-4E30-B6C4-63FF5CBA7EE5}"/>
   </bookViews>
   <sheets>
     <sheet name="Hoja1" sheetId="1" r:id="rId1"/>
@@ -478,7 +478,7 @@
   <dimension ref="A1:F12"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A3" workbookViewId="0">
-      <selection activeCell="D7" sqref="D7"/>
+      <selection activeCell="F9" sqref="F9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -534,7 +534,7 @@
         <v>11</v>
       </c>
       <c r="C3" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="D3" t="s">
         <v>11</v>
@@ -653,8 +653,8 @@
       <c r="B9" t="s">
         <v>11</v>
       </c>
-      <c r="C9" s="1" t="s">
-        <v>12</v>
+      <c r="C9" s="2" t="s">
+        <v>11</v>
       </c>
       <c r="D9" t="s">
         <v>11</v>
@@ -662,8 +662,8 @@
       <c r="E9" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="F9" s="1" t="s">
-        <v>12</v>
+      <c r="F9" s="2" t="s">
+        <v>11</v>
       </c>
     </row>
     <row r="10" spans="1:6" x14ac:dyDescent="0.35">

--- a/REGISTRO.xlsx
+++ b/REGISTRO.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29127"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29231"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Alex\Documents\GitHub\cumpleanosangela\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8A6CE7CC-90D2-4547-9FAE-C496E03DAC0D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{53FF7977-48B6-44CF-B927-9C1FC25FD428}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="21360" yWindow="1370" windowWidth="14400" windowHeight="7810" xr2:uid="{0B18AD99-E1DA-4E30-B6C4-63FF5CBA7EE5}"/>
+    <workbookView xWindow="21360" yWindow="1370" windowWidth="14400" windowHeight="8090" xr2:uid="{0B18AD99-E1DA-4E30-B6C4-63FF5CBA7EE5}"/>
   </bookViews>
   <sheets>
     <sheet name="Hoja1" sheetId="1" r:id="rId1"/>
@@ -477,8 +477,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{EDB1CACE-E134-4814-8452-98F6B22B641E}">
   <dimension ref="A1:F12"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A3" workbookViewId="0">
-      <selection activeCell="F9" sqref="F9"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C9" sqref="C9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>

--- a/REGISTRO.xlsx
+++ b/REGISTRO.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Alex\Documents\GitHub\cumpleanosangela\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{53FF7977-48B6-44CF-B927-9C1FC25FD428}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F84BA13D-CAE7-4805-844E-78039ABF3EFC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="21360" yWindow="1370" windowWidth="14400" windowHeight="8090" xr2:uid="{0B18AD99-E1DA-4E30-B6C4-63FF5CBA7EE5}"/>
   </bookViews>
@@ -478,7 +478,7 @@
   <dimension ref="A1:F12"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C9" sqref="C9"/>
+      <selection activeCell="E9" sqref="E9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -610,11 +610,11 @@
       <c r="A7" t="s">
         <v>6</v>
       </c>
-      <c r="B7" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="C7" s="1" t="s">
-        <v>12</v>
+      <c r="B7" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="C7" s="2" t="s">
+        <v>11</v>
       </c>
       <c r="D7" t="s">
         <v>11</v>
@@ -659,8 +659,8 @@
       <c r="D9" t="s">
         <v>11</v>
       </c>
-      <c r="E9" s="1" t="s">
-        <v>12</v>
+      <c r="E9" s="2" t="s">
+        <v>11</v>
       </c>
       <c r="F9" s="2" t="s">
         <v>11</v>
